--- a/CargoUIAutomation/src/test/resources/XpathTestData.xlsx
+++ b/CargoUIAutomation/src/test/resources/XpathTestData.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalFiles\p57448\CargoUIAutomation\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\IdeaProjects\Cargo\CargoUIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85755F0-931A-4F08-B971-9421020D27E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEDDCB6-E132-408A-A81B-E0DD43C19821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{73F83708-58D9-CD41-B3DD-01428282C24F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73F83708-58D9-CD41-B3DD-01428282C24F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="268">
   <si>
     <t>CargoUsernameLogin</t>
   </si>
@@ -804,6 +793,42 @@
   </si>
   <si>
     <t>form[name='flightSearchForm'] div[class='ng-scope'] span[class='info-form ng-binding']</t>
+  </si>
+  <si>
+    <t>#geshippingDate + button</t>
+  </si>
+  <si>
+    <t>gbParcelsShipmentDateOpener</t>
+  </si>
+  <si>
+    <t>//td[@data-month='%s']/a[contains(text(), '%s')]</t>
+  </si>
+  <si>
+    <t>gbParcelsShipmentDateSelector</t>
+  </si>
+  <si>
+    <t>gbParcelsShipmentDateCalendar</t>
+  </si>
+  <si>
+    <t>ui-datepicker-div</t>
+  </si>
+  <si>
+    <t>div[id='ui-datepicker-div'] div a.ui-datepicker-next</t>
+  </si>
+  <si>
+    <t>gbParcelsShipmentDateCalendarNextMonth</t>
+  </si>
+  <si>
+    <t>gbParcelsShipmentDateInput</t>
+  </si>
+  <si>
+    <t>span[class='input-group'] input[id='geshippingDate']</t>
+  </si>
+  <si>
+    <t>gbParcelsDepartureTimeSelector</t>
+  </si>
+  <si>
+    <t>div span select[id='departuretimeGeneral']</t>
   </si>
 </sst>
 </file>
@@ -1197,21 +1222,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486E0D93-E580-4D4E-91BE-77049C6FF4F1}">
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="56.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="56.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="73.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5">
+    <row r="1" spans="1:3" ht="16.8">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1219,7 +1244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5">
+    <row r="2" spans="1:3" ht="16.8">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +1252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5">
+    <row r="3" spans="1:3" ht="16.8">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1235,7 +1260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5">
+    <row r="4" spans="1:3" ht="16.8">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1243,7 +1268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5">
+    <row r="5" spans="1:3" ht="16.8">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1251,7 +1276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5">
+    <row r="6" spans="1:3" ht="16.8">
       <c r="A6" s="2" t="s">
         <v>170</v>
       </c>
@@ -1259,7 +1284,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5">
+    <row r="7" spans="1:3" ht="16.8">
       <c r="A7" s="2" t="s">
         <v>172</v>
       </c>
@@ -1267,7 +1292,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5">
+    <row r="8" spans="1:3" ht="16.8">
       <c r="A8" s="2" t="s">
         <v>174</v>
       </c>
@@ -1275,7 +1300,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5">
+    <row r="9" spans="1:3" ht="16.8">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1283,7 +1308,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5">
+    <row r="10" spans="1:3" ht="16.8">
       <c r="A10" s="2" t="s">
         <v>179</v>
       </c>
@@ -1294,7 +1319,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5">
+    <row r="11" spans="1:3" ht="16.8">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1303,7 +1328,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="16.5">
+    <row r="12" spans="1:3" ht="16.8">
       <c r="A12" s="2" t="s">
         <v>180</v>
       </c>
@@ -1312,7 +1337,7 @@
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="16.5">
+    <row r="13" spans="1:3" ht="16.8">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1320,7 +1345,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5">
+    <row r="14" spans="1:3" ht="16.8">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1328,7 +1353,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5">
+    <row r="15" spans="1:3" ht="16.8">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1336,7 +1361,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5">
+    <row r="16" spans="1:3" ht="16.8">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1344,7 +1369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5">
+    <row r="17" spans="1:2" ht="16.8">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1352,7 +1377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5">
+    <row r="18" spans="1:2" ht="16.8">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1360,7 +1385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.5">
+    <row r="19" spans="1:2" ht="16.8">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1368,7 +1393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.5">
+    <row r="20" spans="1:2" ht="16.8">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1376,7 +1401,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5">
+    <row r="21" spans="1:2" ht="16.8">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1384,7 +1409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.5">
+    <row r="22" spans="1:2" ht="16.8">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1392,7 +1417,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5">
+    <row r="23" spans="1:2" ht="16.8">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1400,7 +1425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.5">
+    <row r="24" spans="1:2" ht="16.8">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -1408,7 +1433,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.5">
+    <row r="25" spans="1:2" ht="16.8">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -1416,7 +1441,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.5">
+    <row r="26" spans="1:2" ht="16.8">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -1424,7 +1449,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.5">
+    <row r="27" spans="1:2" ht="16.8">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
@@ -1432,7 +1457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.5">
+    <row r="28" spans="1:2" ht="16.8">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1440,7 +1465,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.5">
+    <row r="29" spans="1:2" ht="16.8">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -1448,7 +1473,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.5">
+    <row r="30" spans="1:2" ht="16.8">
       <c r="A30" s="2" t="s">
         <v>42</v>
       </c>
@@ -1456,7 +1481,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.5">
+    <row r="31" spans="1:2" ht="16.8">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -1464,7 +1489,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.5">
+    <row r="32" spans="1:2" ht="16.8">
       <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
@@ -1472,7 +1497,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.5">
+    <row r="33" spans="1:2" ht="16.8">
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
@@ -1480,7 +1505,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16.5">
+    <row r="34" spans="1:2" ht="16.8">
       <c r="A34" s="2" t="s">
         <v>50</v>
       </c>
@@ -1488,7 +1513,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16.5">
+    <row r="35" spans="1:2" ht="16.8">
       <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
@@ -1496,7 +1521,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16.5">
+    <row r="36" spans="1:2" ht="16.8">
       <c r="A36" s="2" t="s">
         <v>54</v>
       </c>
@@ -1504,7 +1529,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16.5">
+    <row r="37" spans="1:2" ht="16.8">
       <c r="A37" s="2" t="s">
         <v>56</v>
       </c>
@@ -1512,7 +1537,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16.5">
+    <row r="38" spans="1:2" ht="16.8">
       <c r="A38" s="2" t="s">
         <v>58</v>
       </c>
@@ -1520,7 +1545,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16.5">
+    <row r="39" spans="1:2" ht="16.8">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
@@ -1528,7 +1553,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16.5">
+    <row r="40" spans="1:2" ht="16.8">
       <c r="A40" s="2" t="s">
         <v>62</v>
       </c>
@@ -1536,7 +1561,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16.5">
+    <row r="41" spans="1:2" ht="16.8">
       <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
@@ -1544,7 +1569,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16.5">
+    <row r="42" spans="1:2" ht="16.8">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -1552,7 +1577,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16.5">
+    <row r="43" spans="1:2" ht="16.8">
       <c r="A43" s="2" t="s">
         <v>68</v>
       </c>
@@ -1560,7 +1585,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16.5">
+    <row r="44" spans="1:2" ht="16.8">
       <c r="A44" s="2" t="s">
         <v>70</v>
       </c>
@@ -1568,7 +1593,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16.5">
+    <row r="45" spans="1:2" ht="16.8">
       <c r="A45" s="2" t="s">
         <v>72</v>
       </c>
@@ -1576,7 +1601,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16.5">
+    <row r="46" spans="1:2" ht="16.8">
       <c r="A46" s="2" t="s">
         <v>74</v>
       </c>
@@ -1584,7 +1609,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16.5">
+    <row r="47" spans="1:2" ht="16.8">
       <c r="A47" s="2" t="s">
         <v>76</v>
       </c>
@@ -1592,7 +1617,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16.5">
+    <row r="48" spans="1:2" ht="16.8">
       <c r="A48" s="2" t="s">
         <v>78</v>
       </c>
@@ -1600,7 +1625,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16.5">
+    <row r="49" spans="1:2" ht="16.8">
       <c r="A49" s="2" t="s">
         <v>80</v>
       </c>
@@ -1608,7 +1633,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16.5">
+    <row r="50" spans="1:2" ht="16.8">
       <c r="A50" s="2" t="s">
         <v>82</v>
       </c>
@@ -1616,7 +1641,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16.5">
+    <row r="51" spans="1:2" ht="16.8">
       <c r="A51" s="2" t="s">
         <v>84</v>
       </c>
@@ -1624,7 +1649,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16.5">
+    <row r="52" spans="1:2" ht="16.8">
       <c r="A52" s="2" t="s">
         <v>86</v>
       </c>
@@ -1632,7 +1657,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16.5">
+    <row r="53" spans="1:2" ht="16.8">
       <c r="A53" s="2" t="s">
         <v>88</v>
       </c>
@@ -1640,7 +1665,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16.5">
+    <row r="54" spans="1:2" ht="16.8">
       <c r="A54" s="2" t="s">
         <v>90</v>
       </c>
@@ -1648,7 +1673,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16.5">
+    <row r="55" spans="1:2" ht="16.8">
       <c r="A55" s="2" t="s">
         <v>92</v>
       </c>
@@ -1656,7 +1681,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16.5">
+    <row r="56" spans="1:2" ht="16.8">
       <c r="A56" s="2" t="s">
         <v>94</v>
       </c>
@@ -1664,7 +1689,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16.5">
+    <row r="57" spans="1:2" ht="16.8">
       <c r="A57" s="2" t="s">
         <v>96</v>
       </c>
@@ -1672,7 +1697,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16.5">
+    <row r="58" spans="1:2" ht="16.8">
       <c r="A58" s="2" t="s">
         <v>98</v>
       </c>
@@ -1680,7 +1705,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16.5">
+    <row r="59" spans="1:2" ht="16.8">
       <c r="A59" s="2" t="s">
         <v>100</v>
       </c>
@@ -1688,7 +1713,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16.5">
+    <row r="60" spans="1:2" ht="16.8">
       <c r="A60" s="2" t="s">
         <v>102</v>
       </c>
@@ -1696,7 +1721,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16.5">
+    <row r="61" spans="1:2" ht="16.8">
       <c r="A61" s="2" t="s">
         <v>104</v>
       </c>
@@ -1704,7 +1729,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16.5">
+    <row r="62" spans="1:2" ht="16.8">
       <c r="A62" s="2" t="s">
         <v>106</v>
       </c>
@@ -1712,7 +1737,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16.5">
+    <row r="63" spans="1:2" ht="16.8">
       <c r="A63" s="2" t="s">
         <v>108</v>
       </c>
@@ -1720,7 +1745,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16.5">
+    <row r="64" spans="1:2" ht="16.8">
       <c r="A64" s="2" t="s">
         <v>110</v>
       </c>
@@ -1728,7 +1753,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16.5">
+    <row r="65" spans="1:2" ht="16.8">
       <c r="A65" s="2" t="s">
         <v>112</v>
       </c>
@@ -1736,7 +1761,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16.5">
+    <row r="66" spans="1:2" ht="16.8">
       <c r="A66" s="2" t="s">
         <v>114</v>
       </c>
@@ -1744,7 +1769,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16.5">
+    <row r="67" spans="1:2" ht="16.8">
       <c r="A67" s="2" t="s">
         <v>116</v>
       </c>
@@ -1752,7 +1777,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16.5">
+    <row r="68" spans="1:2" ht="16.8">
       <c r="A68" s="2" t="s">
         <v>118</v>
       </c>
@@ -1760,7 +1785,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16.5">
+    <row r="69" spans="1:2" ht="16.8">
       <c r="A69" s="2" t="s">
         <v>120</v>
       </c>
@@ -1768,7 +1793,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="16.5">
+    <row r="70" spans="1:2" ht="16.8">
       <c r="A70" s="2" t="s">
         <v>122</v>
       </c>
@@ -1776,7 +1801,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="16.5">
+    <row r="71" spans="1:2" ht="16.8">
       <c r="A71" s="2" t="s">
         <v>124</v>
       </c>
@@ -1784,7 +1809,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16.5">
+    <row r="72" spans="1:2" ht="16.8">
       <c r="A72" s="2" t="s">
         <v>126</v>
       </c>
@@ -1792,7 +1817,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16.5">
+    <row r="73" spans="1:2" ht="16.8">
       <c r="A73" s="2" t="s">
         <v>128</v>
       </c>
@@ -1800,7 +1825,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16.5">
+    <row r="74" spans="1:2" ht="16.8">
       <c r="A74" s="2" t="s">
         <v>129</v>
       </c>
@@ -1808,7 +1833,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16.5">
+    <row r="75" spans="1:2" ht="16.8">
       <c r="A75" s="2" t="s">
         <v>131</v>
       </c>
@@ -1816,7 +1841,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="16.5">
+    <row r="76" spans="1:2" ht="16.8">
       <c r="A76" s="2" t="s">
         <v>133</v>
       </c>
@@ -1824,7 +1849,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16.5">
+    <row r="77" spans="1:2" ht="16.8">
       <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
@@ -1832,7 +1857,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16.5">
+    <row r="78" spans="1:2" ht="16.8">
       <c r="A78" s="2" t="s">
         <v>137</v>
       </c>
@@ -1840,7 +1865,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="16.5">
+    <row r="79" spans="1:2" ht="16.8">
       <c r="A79" s="2" t="s">
         <v>139</v>
       </c>
@@ -1848,7 +1873,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="16.5">
+    <row r="80" spans="1:2" ht="16.8">
       <c r="A80" s="2" t="s">
         <v>141</v>
       </c>
@@ -1856,7 +1881,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16.5">
+    <row r="81" spans="1:2" ht="16.8">
       <c r="A81" s="2" t="s">
         <v>142</v>
       </c>
@@ -1864,7 +1889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="16.5">
+    <row r="82" spans="1:2" ht="16.8">
       <c r="A82" s="2" t="s">
         <v>143</v>
       </c>
@@ -1872,7 +1897,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16.5">
+    <row r="83" spans="1:2" ht="16.8">
       <c r="A83" s="2" t="s">
         <v>145</v>
       </c>
@@ -1880,7 +1905,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16.5">
+    <row r="84" spans="1:2" ht="16.8">
       <c r="A84" s="2" t="s">
         <v>147</v>
       </c>
@@ -1888,7 +1913,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16.5">
+    <row r="85" spans="1:2" ht="16.8">
       <c r="A85" s="2" t="s">
         <v>149</v>
       </c>
@@ -1896,7 +1921,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16.5">
+    <row r="86" spans="1:2" ht="16.8">
       <c r="A86" s="2" t="s">
         <v>151</v>
       </c>
@@ -1904,7 +1929,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16.5">
+    <row r="87" spans="1:2" ht="16.8">
       <c r="A87" s="2" t="s">
         <v>153</v>
       </c>
@@ -1912,7 +1937,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16.5">
+    <row r="88" spans="1:2" ht="16.8">
       <c r="A88" s="2" t="s">
         <v>155</v>
       </c>
@@ -1920,7 +1945,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="16.5">
+    <row r="89" spans="1:2" ht="16.8">
       <c r="A89" s="2" t="s">
         <v>157</v>
       </c>
@@ -1928,7 +1953,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16.5">
+    <row r="90" spans="1:2" ht="16.8">
       <c r="A90" s="2" t="s">
         <v>159</v>
       </c>
@@ -1936,7 +1961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="16.5">
+    <row r="91" spans="1:2" ht="16.8">
       <c r="A91" s="2" t="s">
         <v>160</v>
       </c>
@@ -1944,7 +1969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16.5">
+    <row r="92" spans="1:2" ht="16.8">
       <c r="A92" s="2" t="s">
         <v>161</v>
       </c>
@@ -1952,7 +1977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16.5">
+    <row r="93" spans="1:2" ht="16.8">
       <c r="A93" s="2" t="s">
         <v>162</v>
       </c>
@@ -1960,7 +1985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16.5">
+    <row r="94" spans="1:2" ht="16.8">
       <c r="A94" s="2" t="s">
         <v>163</v>
       </c>
@@ -1968,7 +1993,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16.5">
+    <row r="95" spans="1:2" ht="16.8">
       <c r="A95" s="2" t="s">
         <v>165</v>
       </c>
@@ -1976,7 +2001,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16.5">
+    <row r="96" spans="1:2" ht="16.8">
       <c r="A96" s="2" t="s">
         <v>167</v>
       </c>
@@ -1984,7 +2009,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
         <v>185</v>
       </c>
@@ -1992,7 +2017,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
         <v>187</v>
       </c>
@@ -2000,7 +2025,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
         <v>189</v>
       </c>
@@ -2008,7 +2033,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
         <v>191</v>
       </c>
@@ -2016,7 +2041,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
         <v>193</v>
       </c>
@@ -2024,7 +2049,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
         <v>195</v>
       </c>
@@ -2032,7 +2057,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
         <v>197</v>
       </c>
@@ -2040,7 +2065,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
         <v>199</v>
       </c>
@@ -2048,7 +2073,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
         <v>201</v>
       </c>
@@ -2056,7 +2081,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
         <v>203</v>
       </c>
@@ -2064,7 +2089,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
         <v>204</v>
       </c>
@@ -2072,7 +2097,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
         <v>254</v>
       </c>
@@ -2080,195 +2105,243 @@
         <v>255</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1" t="s">
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1" t="s">
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1" t="s">
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="1" t="s">
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="1" t="s">
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="1" t="s">
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="1" t="s">
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="1" t="s">
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="1" t="s">
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="1" t="s">
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="1" t="s">
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="1" t="s">
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="1" t="s">
+    <row r="128" spans="1:3">
+      <c r="A128" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CargoUIAutomation/src/test/resources/XpathTestData.xlsx
+++ b/CargoUIAutomation/src/test/resources/XpathTestData.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\IdeaProjects\Cargo\CargoUIAutomation\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalFiles\p57448\CargoUIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEDDCB6-E132-408A-A81B-E0DD43C19821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2C7D7B-8119-4E62-9390-7002EBD9A625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73F83708-58D9-CD41-B3DD-01428282C24F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{73F83708-58D9-CD41-B3DD-01428282C24F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="312">
   <si>
     <t>CargoUsernameLogin</t>
   </si>
@@ -756,79 +767,211 @@
     <t>select#getotalWeightUnit</t>
   </si>
   <si>
+    <t>button#find-flight</t>
+  </si>
+  <si>
+    <t>label[for='gecontainDangerousGoodsNo']</t>
+  </si>
+  <si>
+    <t>label[for='gecontainDangerousGoodsYes']</t>
+  </si>
+  <si>
+    <t>label[for='gcRotatedYes']</t>
+  </si>
+  <si>
+    <t>label[for='gcRotatedNo']</t>
+  </si>
+  <si>
+    <t>label[for='gcPreScreenedYes']</t>
+  </si>
+  <si>
+    <t>label[for='gcPreScreenedNo']</t>
+  </si>
+  <si>
+    <t>//input[@id='getotalWeight']</t>
+  </si>
+  <si>
+    <t>input#geshippingDate</t>
+  </si>
+  <si>
+    <t>gbParcelFlightInformation</t>
+  </si>
+  <si>
+    <t>form[name='flightSearchForm'] div[class='ng-scope'] span[class='info-form ng-binding']</t>
+  </si>
+  <si>
+    <t>Cargo Shipment Request Page</t>
+  </si>
+  <si>
+    <t>ShipmentDescription</t>
+  </si>
+  <si>
+    <t>label[for='boshipmentDescription']</t>
+  </si>
+  <si>
+    <t>gbParcelsShipmentDateInput</t>
+  </si>
+  <si>
+    <t>span[class='input-group'] input[id='geshippingDate']</t>
+  </si>
+  <si>
+    <t>gbParcelsShipmentDateOpener</t>
+  </si>
+  <si>
+    <t>#geshippingDate + button</t>
+  </si>
+  <si>
+    <t>gbParcelsShipmentDateSelector</t>
+  </si>
+  <si>
+    <t>//td[@data-month='%s']/a[contains(text(), '%s')]</t>
+  </si>
+  <si>
+    <t>gbParcelsShipmentDateCalendar</t>
+  </si>
+  <si>
+    <t>ui-datepicker-div</t>
+  </si>
+  <si>
+    <t>gbParcelsShipmentDateCalendarNextMonth</t>
+  </si>
+  <si>
+    <t>div[id='ui-datepicker-div'] div a.ui-datepicker-next</t>
+  </si>
+  <si>
+    <t>gbParcelsDepartureTimeSelector</t>
+  </si>
+  <si>
+    <t>div span select[id='departuretimeGeneral']</t>
+  </si>
+  <si>
     <t>select#departuretimeGeneral</t>
   </si>
   <si>
-    <t>button#find-flight</t>
-  </si>
-  <si>
-    <t>label[for='gecontainDangerousGoodsNo']</t>
-  </si>
-  <si>
-    <t>label[for='gecontainDangerousGoodsYes']</t>
-  </si>
-  <si>
-    <t>label[for='gcRotatedYes']</t>
-  </si>
-  <si>
-    <t>label[for='gcRotatedNo']</t>
-  </si>
-  <si>
-    <t>label[for='gcPreScreenedYes']</t>
-  </si>
-  <si>
-    <t>label[for='gcPreScreenedNo']</t>
-  </si>
-  <si>
-    <t>//input[@id='getotalWeight']</t>
-  </si>
-  <si>
-    <t>form[name='flightSearchForm'] div[class='ng-scope'] button[type='button']</t>
-  </si>
-  <si>
-    <t>input#geshippingDate</t>
-  </si>
-  <si>
-    <t>gbParcelFlightInformation</t>
-  </si>
-  <si>
-    <t>form[name='flightSearchForm'] div[class='ng-scope'] span[class='info-form ng-binding']</t>
-  </si>
-  <si>
-    <t>#geshippingDate + button</t>
-  </si>
-  <si>
-    <t>gbParcelsShipmentDateOpener</t>
-  </si>
-  <si>
-    <t>//td[@data-month='%s']/a[contains(text(), '%s')]</t>
-  </si>
-  <si>
-    <t>gbParcelsShipmentDateSelector</t>
-  </si>
-  <si>
-    <t>gbParcelsShipmentDateCalendar</t>
-  </si>
-  <si>
-    <t>ui-datepicker-div</t>
-  </si>
-  <si>
-    <t>div[id='ui-datepicker-div'] div a.ui-datepicker-next</t>
-  </si>
-  <si>
-    <t>gbParcelsShipmentDateCalendarNextMonth</t>
-  </si>
-  <si>
-    <t>gbParcelsShipmentDateInput</t>
-  </si>
-  <si>
-    <t>span[class='input-group'] input[id='geshippingDate']</t>
-  </si>
-  <si>
-    <t>gbParcelsDepartureTimeSelector</t>
-  </si>
-  <si>
-    <t>div span select[id='departuretimeGeneral']</t>
+    <t>ParticipantInformation</t>
+  </si>
+  <si>
+    <t>ShipperInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShipperAccountNumber </t>
+  </si>
+  <si>
+    <t>RecipientInformation</t>
+  </si>
+  <si>
+    <t>RecipientAccountNumber</t>
+  </si>
+  <si>
+    <t>RecipientFullName</t>
+  </si>
+  <si>
+    <t>RecipientCountry</t>
+  </si>
+  <si>
+    <t>RecipientAddress</t>
+  </si>
+  <si>
+    <t>RecipientCity</t>
+  </si>
+  <si>
+    <t>RecipientState</t>
+  </si>
+  <si>
+    <t>RecipientPostalCode</t>
+  </si>
+  <si>
+    <t>RecipientAirportCode</t>
+  </si>
+  <si>
+    <t>PaymentInformation</t>
+  </si>
+  <si>
+    <t>NoValueDeclared</t>
+  </si>
+  <si>
+    <t>ValueDeclared</t>
+  </si>
+  <si>
+    <t>ValueDeclaredAmount</t>
+  </si>
+  <si>
+    <t>PromotionalCode</t>
+  </si>
+  <si>
+    <t>PaymentMethod</t>
+  </si>
+  <si>
+    <t>DeltaAccount</t>
+  </si>
+  <si>
+    <t>CreditCard</t>
+  </si>
+  <si>
+    <t>RecipientEmailAddress</t>
+  </si>
+  <si>
+    <t>CommunicationCheckBox</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>#bofullName-2</t>
+  </si>
+  <si>
+    <t>#bocountryId-disable-2</t>
+  </si>
+  <si>
+    <t>#boaddress-2</t>
+  </si>
+  <si>
+    <t>#bocity-2</t>
+  </si>
+  <si>
+    <t>#bostateId-disable-2</t>
+  </si>
+  <si>
+    <t>#bopostalCd-2</t>
+  </si>
+  <si>
+    <t>#boairportCd-2</t>
+  </si>
+  <si>
+    <t>label[for='bonoValueDeclared-1']</t>
+  </si>
+  <si>
+    <t>label[for='bovalueDeclared-1']</t>
+  </si>
+  <si>
+    <t>label[for='bocurrencyValue-1']</t>
+  </si>
+  <si>
+    <t>label[for='bopromotionalCd']</t>
+  </si>
+  <si>
+    <t>label[for='bopaymentTypeDeltaAcc']</t>
+  </si>
+  <si>
+    <t>label[for='bopaymentTypeCreditCard']</t>
+  </si>
+  <si>
+    <t>#pdemail</t>
+  </si>
+  <si>
+    <t>label[for='bosubscriptionOptFlag']</t>
+  </si>
+  <si>
+    <t>.btn.dc-cancel-button.col-xs-5.ng-binding</t>
+  </si>
+  <si>
+    <t>.btn.dc-submit-button.col-xs-5.col-xs-offset-2.ng-binding</t>
+  </si>
+  <si>
+    <t>#boaccountNbr-1</t>
   </si>
 </sst>
 </file>
@@ -1222,21 +1365,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486E0D93-E580-4D4E-91BE-77049C6FF4F1}">
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="56.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="56.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="73.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.796875" style="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.8">
+    <row r="1" spans="1:3" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1244,7 +1387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.8">
+    <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1252,7 +1395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.8">
+    <row r="3" spans="1:3" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1260,7 +1403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.8">
+    <row r="4" spans="1:3" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1268,7 +1411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.8">
+    <row r="5" spans="1:3" ht="16.5">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1276,7 +1419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.8">
+    <row r="6" spans="1:3" ht="16.5">
       <c r="A6" s="2" t="s">
         <v>170</v>
       </c>
@@ -1284,7 +1427,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.8">
+    <row r="7" spans="1:3" ht="16.5">
       <c r="A7" s="2" t="s">
         <v>172</v>
       </c>
@@ -1292,7 +1435,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.8">
+    <row r="8" spans="1:3" ht="16.5">
       <c r="A8" s="2" t="s">
         <v>174</v>
       </c>
@@ -1300,7 +1443,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.8">
+    <row r="9" spans="1:3" ht="16.5">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1308,7 +1451,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.8">
+    <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="2" t="s">
         <v>179</v>
       </c>
@@ -1319,7 +1462,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.8">
+    <row r="11" spans="1:3" ht="16.5">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1328,7 +1471,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="16.8">
+    <row r="12" spans="1:3" ht="16.5">
       <c r="A12" s="2" t="s">
         <v>180</v>
       </c>
@@ -1337,7 +1480,7 @@
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="16.8">
+    <row r="13" spans="1:3" ht="16.5">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1345,7 +1488,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.8">
+    <row r="14" spans="1:3" ht="16.5">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1353,7 +1496,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.8">
+    <row r="15" spans="1:3" ht="16.5">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1361,7 +1504,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.8">
+    <row r="16" spans="1:3" ht="16.5">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1369,7 +1512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.8">
+    <row r="17" spans="1:2" ht="16.5">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1377,7 +1520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.8">
+    <row r="18" spans="1:2" ht="16.5">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1385,7 +1528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.8">
+    <row r="19" spans="1:2" ht="16.5">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1393,7 +1536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.8">
+    <row r="20" spans="1:2" ht="16.5">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1401,7 +1544,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.8">
+    <row r="21" spans="1:2" ht="16.5">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1409,7 +1552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.8">
+    <row r="22" spans="1:2" ht="16.5">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1417,7 +1560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.8">
+    <row r="23" spans="1:2" ht="16.5">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1425,7 +1568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.8">
+    <row r="24" spans="1:2" ht="16.5">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -1433,7 +1576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.8">
+    <row r="25" spans="1:2" ht="16.5">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -1441,7 +1584,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.8">
+    <row r="26" spans="1:2" ht="16.5">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -1449,7 +1592,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.8">
+    <row r="27" spans="1:2" ht="16.5">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
@@ -1457,7 +1600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.8">
+    <row r="28" spans="1:2" ht="16.5">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1465,7 +1608,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.8">
+    <row r="29" spans="1:2" ht="16.5">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -1473,7 +1616,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.8">
+    <row r="30" spans="1:2" ht="16.5">
       <c r="A30" s="2" t="s">
         <v>42</v>
       </c>
@@ -1481,7 +1624,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.8">
+    <row r="31" spans="1:2" ht="16.5">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -1489,7 +1632,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.8">
+    <row r="32" spans="1:2" ht="16.5">
       <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
@@ -1497,7 +1640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.8">
+    <row r="33" spans="1:2" ht="16.5">
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
@@ -1505,7 +1648,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16.8">
+    <row r="34" spans="1:2" ht="16.5">
       <c r="A34" s="2" t="s">
         <v>50</v>
       </c>
@@ -1513,7 +1656,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16.8">
+    <row r="35" spans="1:2" ht="16.5">
       <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
@@ -1521,7 +1664,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16.8">
+    <row r="36" spans="1:2" ht="16.5">
       <c r="A36" s="2" t="s">
         <v>54</v>
       </c>
@@ -1529,7 +1672,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16.8">
+    <row r="37" spans="1:2" ht="16.5">
       <c r="A37" s="2" t="s">
         <v>56</v>
       </c>
@@ -1537,7 +1680,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16.8">
+    <row r="38" spans="1:2" ht="16.5">
       <c r="A38" s="2" t="s">
         <v>58</v>
       </c>
@@ -1545,7 +1688,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16.8">
+    <row r="39" spans="1:2" ht="16.5">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
@@ -1553,7 +1696,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16.8">
+    <row r="40" spans="1:2" ht="16.5">
       <c r="A40" s="2" t="s">
         <v>62</v>
       </c>
@@ -1561,7 +1704,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16.8">
+    <row r="41" spans="1:2" ht="16.5">
       <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
@@ -1569,7 +1712,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16.8">
+    <row r="42" spans="1:2" ht="16.5">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -1577,7 +1720,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16.8">
+    <row r="43" spans="1:2" ht="16.5">
       <c r="A43" s="2" t="s">
         <v>68</v>
       </c>
@@ -1585,7 +1728,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16.8">
+    <row r="44" spans="1:2" ht="16.5">
       <c r="A44" s="2" t="s">
         <v>70</v>
       </c>
@@ -1593,7 +1736,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16.8">
+    <row r="45" spans="1:2" ht="16.5">
       <c r="A45" s="2" t="s">
         <v>72</v>
       </c>
@@ -1601,7 +1744,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16.8">
+    <row r="46" spans="1:2" ht="16.5">
       <c r="A46" s="2" t="s">
         <v>74</v>
       </c>
@@ -1609,7 +1752,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16.8">
+    <row r="47" spans="1:2" ht="16.5">
       <c r="A47" s="2" t="s">
         <v>76</v>
       </c>
@@ -1617,7 +1760,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16.8">
+    <row r="48" spans="1:2" ht="16.5">
       <c r="A48" s="2" t="s">
         <v>78</v>
       </c>
@@ -1625,7 +1768,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16.8">
+    <row r="49" spans="1:2" ht="16.5">
       <c r="A49" s="2" t="s">
         <v>80</v>
       </c>
@@ -1633,7 +1776,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16.8">
+    <row r="50" spans="1:2" ht="16.5">
       <c r="A50" s="2" t="s">
         <v>82</v>
       </c>
@@ -1641,7 +1784,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16.8">
+    <row r="51" spans="1:2" ht="16.5">
       <c r="A51" s="2" t="s">
         <v>84</v>
       </c>
@@ -1649,7 +1792,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16.8">
+    <row r="52" spans="1:2" ht="16.5">
       <c r="A52" s="2" t="s">
         <v>86</v>
       </c>
@@ -1657,7 +1800,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16.8">
+    <row r="53" spans="1:2" ht="16.5">
       <c r="A53" s="2" t="s">
         <v>88</v>
       </c>
@@ -1665,7 +1808,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16.8">
+    <row r="54" spans="1:2" ht="16.5">
       <c r="A54" s="2" t="s">
         <v>90</v>
       </c>
@@ -1673,7 +1816,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16.8">
+    <row r="55" spans="1:2" ht="16.5">
       <c r="A55" s="2" t="s">
         <v>92</v>
       </c>
@@ -1681,7 +1824,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16.8">
+    <row r="56" spans="1:2" ht="16.5">
       <c r="A56" s="2" t="s">
         <v>94</v>
       </c>
@@ -1689,7 +1832,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16.8">
+    <row r="57" spans="1:2" ht="16.5">
       <c r="A57" s="2" t="s">
         <v>96</v>
       </c>
@@ -1697,7 +1840,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16.8">
+    <row r="58" spans="1:2" ht="16.5">
       <c r="A58" s="2" t="s">
         <v>98</v>
       </c>
@@ -1705,7 +1848,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16.8">
+    <row r="59" spans="1:2" ht="16.5">
       <c r="A59" s="2" t="s">
         <v>100</v>
       </c>
@@ -1713,7 +1856,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16.8">
+    <row r="60" spans="1:2" ht="16.5">
       <c r="A60" s="2" t="s">
         <v>102</v>
       </c>
@@ -1721,7 +1864,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16.8">
+    <row r="61" spans="1:2" ht="16.5">
       <c r="A61" s="2" t="s">
         <v>104</v>
       </c>
@@ -1729,7 +1872,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16.8">
+    <row r="62" spans="1:2" ht="16.5">
       <c r="A62" s="2" t="s">
         <v>106</v>
       </c>
@@ -1737,7 +1880,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16.8">
+    <row r="63" spans="1:2" ht="16.5">
       <c r="A63" s="2" t="s">
         <v>108</v>
       </c>
@@ -1745,7 +1888,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16.8">
+    <row r="64" spans="1:2" ht="16.5">
       <c r="A64" s="2" t="s">
         <v>110</v>
       </c>
@@ -1753,7 +1896,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16.8">
+    <row r="65" spans="1:2" ht="16.5">
       <c r="A65" s="2" t="s">
         <v>112</v>
       </c>
@@ -1761,7 +1904,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16.8">
+    <row r="66" spans="1:2" ht="16.5">
       <c r="A66" s="2" t="s">
         <v>114</v>
       </c>
@@ -1769,7 +1912,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16.8">
+    <row r="67" spans="1:2" ht="16.5">
       <c r="A67" s="2" t="s">
         <v>116</v>
       </c>
@@ -1777,7 +1920,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16.8">
+    <row r="68" spans="1:2" ht="16.5">
       <c r="A68" s="2" t="s">
         <v>118</v>
       </c>
@@ -1785,7 +1928,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16.8">
+    <row r="69" spans="1:2" ht="16.5">
       <c r="A69" s="2" t="s">
         <v>120</v>
       </c>
@@ -1793,7 +1936,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="16.8">
+    <row r="70" spans="1:2" ht="16.5">
       <c r="A70" s="2" t="s">
         <v>122</v>
       </c>
@@ -1801,7 +1944,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="16.8">
+    <row r="71" spans="1:2" ht="16.5">
       <c r="A71" s="2" t="s">
         <v>124</v>
       </c>
@@ -1809,7 +1952,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16.8">
+    <row r="72" spans="1:2" ht="16.5">
       <c r="A72" s="2" t="s">
         <v>126</v>
       </c>
@@ -1817,7 +1960,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16.8">
+    <row r="73" spans="1:2" ht="16.5">
       <c r="A73" s="2" t="s">
         <v>128</v>
       </c>
@@ -1825,7 +1968,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16.8">
+    <row r="74" spans="1:2" ht="16.5">
       <c r="A74" s="2" t="s">
         <v>129</v>
       </c>
@@ -1833,7 +1976,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16.8">
+    <row r="75" spans="1:2" ht="16.5">
       <c r="A75" s="2" t="s">
         <v>131</v>
       </c>
@@ -1841,7 +1984,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="16.8">
+    <row r="76" spans="1:2" ht="16.5">
       <c r="A76" s="2" t="s">
         <v>133</v>
       </c>
@@ -1849,7 +1992,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16.8">
+    <row r="77" spans="1:2" ht="16.5">
       <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
@@ -1857,7 +2000,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16.8">
+    <row r="78" spans="1:2" ht="16.5">
       <c r="A78" s="2" t="s">
         <v>137</v>
       </c>
@@ -1865,7 +2008,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="16.8">
+    <row r="79" spans="1:2" ht="16.5">
       <c r="A79" s="2" t="s">
         <v>139</v>
       </c>
@@ -1873,7 +2016,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="16.8">
+    <row r="80" spans="1:2" ht="16.5">
       <c r="A80" s="2" t="s">
         <v>141</v>
       </c>
@@ -1881,7 +2024,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16.8">
+    <row r="81" spans="1:2" ht="16.5">
       <c r="A81" s="2" t="s">
         <v>142</v>
       </c>
@@ -1889,7 +2032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="16.8">
+    <row r="82" spans="1:2" ht="16.5">
       <c r="A82" s="2" t="s">
         <v>143</v>
       </c>
@@ -1897,7 +2040,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16.8">
+    <row r="83" spans="1:2" ht="16.5">
       <c r="A83" s="2" t="s">
         <v>145</v>
       </c>
@@ -1905,7 +2048,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16.8">
+    <row r="84" spans="1:2" ht="16.5">
       <c r="A84" s="2" t="s">
         <v>147</v>
       </c>
@@ -1913,7 +2056,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16.8">
+    <row r="85" spans="1:2" ht="16.5">
       <c r="A85" s="2" t="s">
         <v>149</v>
       </c>
@@ -1921,7 +2064,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16.8">
+    <row r="86" spans="1:2" ht="16.5">
       <c r="A86" s="2" t="s">
         <v>151</v>
       </c>
@@ -1929,7 +2072,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16.8">
+    <row r="87" spans="1:2" ht="16.5">
       <c r="A87" s="2" t="s">
         <v>153</v>
       </c>
@@ -1937,7 +2080,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16.8">
+    <row r="88" spans="1:2" ht="16.5">
       <c r="A88" s="2" t="s">
         <v>155</v>
       </c>
@@ -1945,7 +2088,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="16.8">
+    <row r="89" spans="1:2" ht="16.5">
       <c r="A89" s="2" t="s">
         <v>157</v>
       </c>
@@ -1953,7 +2096,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16.8">
+    <row r="90" spans="1:2" ht="16.5">
       <c r="A90" s="2" t="s">
         <v>159</v>
       </c>
@@ -1961,7 +2104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="16.8">
+    <row r="91" spans="1:2" ht="16.5">
       <c r="A91" s="2" t="s">
         <v>160</v>
       </c>
@@ -1969,7 +2112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16.8">
+    <row r="92" spans="1:2" ht="16.5">
       <c r="A92" s="2" t="s">
         <v>161</v>
       </c>
@@ -1977,7 +2120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16.8">
+    <row r="93" spans="1:2" ht="16.5">
       <c r="A93" s="2" t="s">
         <v>162</v>
       </c>
@@ -1985,7 +2128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16.8">
+    <row r="94" spans="1:2" ht="16.5">
       <c r="A94" s="2" t="s">
         <v>163</v>
       </c>
@@ -1993,7 +2136,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16.8">
+    <row r="95" spans="1:2" ht="16.5">
       <c r="A95" s="2" t="s">
         <v>165</v>
       </c>
@@ -2001,7 +2144,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16.8">
+    <row r="96" spans="1:2" ht="16.5">
       <c r="A96" s="2" t="s">
         <v>167</v>
       </c>
@@ -2099,80 +2242,77 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
         <v>207</v>
       </c>
@@ -2180,7 +2320,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
         <v>209</v>
       </c>
@@ -2188,7 +2328,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
         <v>211</v>
       </c>
@@ -2196,7 +2336,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
         <v>213</v>
       </c>
@@ -2204,7 +2344,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
         <v>215</v>
       </c>
@@ -2212,7 +2352,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
         <v>216</v>
       </c>
@@ -2220,7 +2360,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
         <v>217</v>
       </c>
@@ -2228,7 +2368,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
         <v>218</v>
       </c>
@@ -2236,7 +2376,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
         <v>219</v>
       </c>
@@ -2244,7 +2384,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
         <v>220</v>
       </c>
@@ -2252,7 +2392,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
         <v>221</v>
       </c>
@@ -2260,7 +2400,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
         <v>222</v>
       </c>
@@ -2273,7 +2413,7 @@
         <v>223</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2289,7 +2429,7 @@
         <v>225</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2297,7 +2437,7 @@
         <v>226</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2305,7 +2445,7 @@
         <v>227</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2313,7 +2453,7 @@
         <v>228</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2321,7 +2461,7 @@
         <v>229</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2329,7 +2469,7 @@
         <v>230</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2337,11 +2477,201 @@
         <v>231</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/CargoUIAutomation/src/test/resources/XpathTestData.xlsx
+++ b/CargoUIAutomation/src/test/resources/XpathTestData.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalFiles\p57448\CargoUIAutomation\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\IdeaProjects\Cargo\CargoUIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2C7D7B-8119-4E62-9390-7002EBD9A625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE42381-7505-45E5-8C73-85A66FEA8288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{73F83708-58D9-CD41-B3DD-01428282C24F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73F83708-58D9-CD41-B3DD-01428282C24F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="306">
   <si>
     <t>CargoUsernameLogin</t>
   </si>
@@ -659,30 +648,6 @@
     <t>gbParcelsDepartureTime</t>
   </si>
   <si>
-    <t>gbParcelsShipmentServiceDoortoDoor</t>
-  </si>
-  <si>
-    <t>label[for='generalSelectedPickupDeliveryOptionCode0']</t>
-  </si>
-  <si>
-    <t>gbParcelsShipmentServicePickuponly</t>
-  </si>
-  <si>
-    <t>label[for='generalSelectedPickupDeliveryOptionCode1']</t>
-  </si>
-  <si>
-    <t>gbParcelsShipmentServiceDeliveryOnly</t>
-  </si>
-  <si>
-    <t>label[for='generalSelectedPickupDeliveryOptionCode2']</t>
-  </si>
-  <si>
-    <t>gbParcelsShipmentServiceNone</t>
-  </si>
-  <si>
-    <t>label[for='generalSelectedPickupDeliveryOptionCode3']</t>
-  </si>
-  <si>
     <t>gbParcels1stParcel</t>
   </si>
   <si>
@@ -972,6 +937,12 @@
   </si>
   <si>
     <t>#boaccountNbr-1</t>
+  </si>
+  <si>
+    <t>gbParcelsShipmentServiceDeliveryType</t>
+  </si>
+  <si>
+    <t>input[id*='generalSelectedPickupDeliveryOptionCode'] + label[for='%s']</t>
   </si>
 </sst>
 </file>
@@ -1365,21 +1336,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486E0D93-E580-4D4E-91BE-77049C6FF4F1}">
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A134" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="56.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="56.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="73.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5">
+    <row r="1" spans="1:3" ht="16.8">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1387,7 +1358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5">
+    <row r="2" spans="1:3" ht="16.8">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5">
+    <row r="3" spans="1:3" ht="16.8">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1403,7 +1374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5">
+    <row r="4" spans="1:3" ht="16.8">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1411,7 +1382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5">
+    <row r="5" spans="1:3" ht="16.8">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1419,7 +1390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5">
+    <row r="6" spans="1:3" ht="16.8">
       <c r="A6" s="2" t="s">
         <v>170</v>
       </c>
@@ -1427,7 +1398,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5">
+    <row r="7" spans="1:3" ht="16.8">
       <c r="A7" s="2" t="s">
         <v>172</v>
       </c>
@@ -1435,7 +1406,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5">
+    <row r="8" spans="1:3" ht="16.8">
       <c r="A8" s="2" t="s">
         <v>174</v>
       </c>
@@ -1443,7 +1414,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5">
+    <row r="9" spans="1:3" ht="16.8">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1451,7 +1422,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5">
+    <row r="10" spans="1:3" ht="16.8">
       <c r="A10" s="2" t="s">
         <v>179</v>
       </c>
@@ -1462,7 +1433,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5">
+    <row r="11" spans="1:3" ht="16.8">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1471,7 +1442,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="16.5">
+    <row r="12" spans="1:3" ht="16.8">
       <c r="A12" s="2" t="s">
         <v>180</v>
       </c>
@@ -1480,7 +1451,7 @@
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="16.5">
+    <row r="13" spans="1:3" ht="16.8">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1488,7 +1459,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5">
+    <row r="14" spans="1:3" ht="16.8">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1496,7 +1467,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5">
+    <row r="15" spans="1:3" ht="16.8">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1504,7 +1475,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5">
+    <row r="16" spans="1:3" ht="16.8">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1512,7 +1483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5">
+    <row r="17" spans="1:2" ht="16.8">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1520,7 +1491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5">
+    <row r="18" spans="1:2" ht="16.8">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1528,7 +1499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.5">
+    <row r="19" spans="1:2" ht="16.8">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1536,7 +1507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.5">
+    <row r="20" spans="1:2" ht="16.8">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1544,7 +1515,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5">
+    <row r="21" spans="1:2" ht="16.8">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1552,7 +1523,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.5">
+    <row r="22" spans="1:2" ht="16.8">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1560,7 +1531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5">
+    <row r="23" spans="1:2" ht="16.8">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1568,7 +1539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.5">
+    <row r="24" spans="1:2" ht="16.8">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -1576,7 +1547,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.5">
+    <row r="25" spans="1:2" ht="16.8">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -1584,7 +1555,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.5">
+    <row r="26" spans="1:2" ht="16.8">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -1592,7 +1563,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.5">
+    <row r="27" spans="1:2" ht="16.8">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
@@ -1600,7 +1571,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.5">
+    <row r="28" spans="1:2" ht="16.8">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1608,7 +1579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.5">
+    <row r="29" spans="1:2" ht="16.8">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -1616,7 +1587,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.5">
+    <row r="30" spans="1:2" ht="16.8">
       <c r="A30" s="2" t="s">
         <v>42</v>
       </c>
@@ -1624,7 +1595,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.5">
+    <row r="31" spans="1:2" ht="16.8">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -1632,7 +1603,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.5">
+    <row r="32" spans="1:2" ht="16.8">
       <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
@@ -1640,7 +1611,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.5">
+    <row r="33" spans="1:2" ht="16.8">
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
@@ -1648,7 +1619,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16.5">
+    <row r="34" spans="1:2" ht="16.8">
       <c r="A34" s="2" t="s">
         <v>50</v>
       </c>
@@ -1656,7 +1627,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16.5">
+    <row r="35" spans="1:2" ht="16.8">
       <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
@@ -1664,7 +1635,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16.5">
+    <row r="36" spans="1:2" ht="16.8">
       <c r="A36" s="2" t="s">
         <v>54</v>
       </c>
@@ -1672,7 +1643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16.5">
+    <row r="37" spans="1:2" ht="16.8">
       <c r="A37" s="2" t="s">
         <v>56</v>
       </c>
@@ -1680,7 +1651,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16.5">
+    <row r="38" spans="1:2" ht="16.8">
       <c r="A38" s="2" t="s">
         <v>58</v>
       </c>
@@ -1688,7 +1659,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16.5">
+    <row r="39" spans="1:2" ht="16.8">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
@@ -1696,7 +1667,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16.5">
+    <row r="40" spans="1:2" ht="16.8">
       <c r="A40" s="2" t="s">
         <v>62</v>
       </c>
@@ -1704,7 +1675,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16.5">
+    <row r="41" spans="1:2" ht="16.8">
       <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
@@ -1712,7 +1683,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16.5">
+    <row r="42" spans="1:2" ht="16.8">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -1720,7 +1691,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16.5">
+    <row r="43" spans="1:2" ht="16.8">
       <c r="A43" s="2" t="s">
         <v>68</v>
       </c>
@@ -1728,7 +1699,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16.5">
+    <row r="44" spans="1:2" ht="16.8">
       <c r="A44" s="2" t="s">
         <v>70</v>
       </c>
@@ -1736,7 +1707,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16.5">
+    <row r="45" spans="1:2" ht="16.8">
       <c r="A45" s="2" t="s">
         <v>72</v>
       </c>
@@ -1744,7 +1715,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16.5">
+    <row r="46" spans="1:2" ht="16.8">
       <c r="A46" s="2" t="s">
         <v>74</v>
       </c>
@@ -1752,7 +1723,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16.5">
+    <row r="47" spans="1:2" ht="16.8">
       <c r="A47" s="2" t="s">
         <v>76</v>
       </c>
@@ -1760,7 +1731,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16.5">
+    <row r="48" spans="1:2" ht="16.8">
       <c r="A48" s="2" t="s">
         <v>78</v>
       </c>
@@ -1768,7 +1739,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16.5">
+    <row r="49" spans="1:2" ht="16.8">
       <c r="A49" s="2" t="s">
         <v>80</v>
       </c>
@@ -1776,7 +1747,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16.5">
+    <row r="50" spans="1:2" ht="16.8">
       <c r="A50" s="2" t="s">
         <v>82</v>
       </c>
@@ -1784,7 +1755,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16.5">
+    <row r="51" spans="1:2" ht="16.8">
       <c r="A51" s="2" t="s">
         <v>84</v>
       </c>
@@ -1792,7 +1763,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16.5">
+    <row r="52" spans="1:2" ht="16.8">
       <c r="A52" s="2" t="s">
         <v>86</v>
       </c>
@@ -1800,7 +1771,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16.5">
+    <row r="53" spans="1:2" ht="16.8">
       <c r="A53" s="2" t="s">
         <v>88</v>
       </c>
@@ -1808,7 +1779,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16.5">
+    <row r="54" spans="1:2" ht="16.8">
       <c r="A54" s="2" t="s">
         <v>90</v>
       </c>
@@ -1816,7 +1787,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16.5">
+    <row r="55" spans="1:2" ht="16.8">
       <c r="A55" s="2" t="s">
         <v>92</v>
       </c>
@@ -1824,7 +1795,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16.5">
+    <row r="56" spans="1:2" ht="16.8">
       <c r="A56" s="2" t="s">
         <v>94</v>
       </c>
@@ -1832,7 +1803,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16.5">
+    <row r="57" spans="1:2" ht="16.8">
       <c r="A57" s="2" t="s">
         <v>96</v>
       </c>
@@ -1840,7 +1811,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16.5">
+    <row r="58" spans="1:2" ht="16.8">
       <c r="A58" s="2" t="s">
         <v>98</v>
       </c>
@@ -1848,7 +1819,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16.5">
+    <row r="59" spans="1:2" ht="16.8">
       <c r="A59" s="2" t="s">
         <v>100</v>
       </c>
@@ -1856,7 +1827,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16.5">
+    <row r="60" spans="1:2" ht="16.8">
       <c r="A60" s="2" t="s">
         <v>102</v>
       </c>
@@ -1864,7 +1835,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16.5">
+    <row r="61" spans="1:2" ht="16.8">
       <c r="A61" s="2" t="s">
         <v>104</v>
       </c>
@@ -1872,7 +1843,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16.5">
+    <row r="62" spans="1:2" ht="16.8">
       <c r="A62" s="2" t="s">
         <v>106</v>
       </c>
@@ -1880,7 +1851,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16.5">
+    <row r="63" spans="1:2" ht="16.8">
       <c r="A63" s="2" t="s">
         <v>108</v>
       </c>
@@ -1888,7 +1859,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16.5">
+    <row r="64" spans="1:2" ht="16.8">
       <c r="A64" s="2" t="s">
         <v>110</v>
       </c>
@@ -1896,7 +1867,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16.5">
+    <row r="65" spans="1:2" ht="16.8">
       <c r="A65" s="2" t="s">
         <v>112</v>
       </c>
@@ -1904,7 +1875,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16.5">
+    <row r="66" spans="1:2" ht="16.8">
       <c r="A66" s="2" t="s">
         <v>114</v>
       </c>
@@ -1912,7 +1883,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16.5">
+    <row r="67" spans="1:2" ht="16.8">
       <c r="A67" s="2" t="s">
         <v>116</v>
       </c>
@@ -1920,7 +1891,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16.5">
+    <row r="68" spans="1:2" ht="16.8">
       <c r="A68" s="2" t="s">
         <v>118</v>
       </c>
@@ -1928,7 +1899,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16.5">
+    <row r="69" spans="1:2" ht="16.8">
       <c r="A69" s="2" t="s">
         <v>120</v>
       </c>
@@ -1936,7 +1907,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="16.5">
+    <row r="70" spans="1:2" ht="16.8">
       <c r="A70" s="2" t="s">
         <v>122</v>
       </c>
@@ -1944,7 +1915,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="16.5">
+    <row r="71" spans="1:2" ht="16.8">
       <c r="A71" s="2" t="s">
         <v>124</v>
       </c>
@@ -1952,7 +1923,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16.5">
+    <row r="72" spans="1:2" ht="16.8">
       <c r="A72" s="2" t="s">
         <v>126</v>
       </c>
@@ -1960,7 +1931,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16.5">
+    <row r="73" spans="1:2" ht="16.8">
       <c r="A73" s="2" t="s">
         <v>128</v>
       </c>
@@ -1968,7 +1939,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16.5">
+    <row r="74" spans="1:2" ht="16.8">
       <c r="A74" s="2" t="s">
         <v>129</v>
       </c>
@@ -1976,7 +1947,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16.5">
+    <row r="75" spans="1:2" ht="16.8">
       <c r="A75" s="2" t="s">
         <v>131</v>
       </c>
@@ -1984,7 +1955,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="16.5">
+    <row r="76" spans="1:2" ht="16.8">
       <c r="A76" s="2" t="s">
         <v>133</v>
       </c>
@@ -1992,7 +1963,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16.5">
+    <row r="77" spans="1:2" ht="16.8">
       <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
@@ -2000,7 +1971,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16.5">
+    <row r="78" spans="1:2" ht="16.8">
       <c r="A78" s="2" t="s">
         <v>137</v>
       </c>
@@ -2008,7 +1979,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="16.5">
+    <row r="79" spans="1:2" ht="16.8">
       <c r="A79" s="2" t="s">
         <v>139</v>
       </c>
@@ -2016,7 +1987,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="16.5">
+    <row r="80" spans="1:2" ht="16.8">
       <c r="A80" s="2" t="s">
         <v>141</v>
       </c>
@@ -2024,7 +1995,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16.5">
+    <row r="81" spans="1:2" ht="16.8">
       <c r="A81" s="2" t="s">
         <v>142</v>
       </c>
@@ -2032,7 +2003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="16.5">
+    <row r="82" spans="1:2" ht="16.8">
       <c r="A82" s="2" t="s">
         <v>143</v>
       </c>
@@ -2040,7 +2011,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16.5">
+    <row r="83" spans="1:2" ht="16.8">
       <c r="A83" s="2" t="s">
         <v>145</v>
       </c>
@@ -2048,7 +2019,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16.5">
+    <row r="84" spans="1:2" ht="16.8">
       <c r="A84" s="2" t="s">
         <v>147</v>
       </c>
@@ -2056,7 +2027,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16.5">
+    <row r="85" spans="1:2" ht="16.8">
       <c r="A85" s="2" t="s">
         <v>149</v>
       </c>
@@ -2064,7 +2035,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16.5">
+    <row r="86" spans="1:2" ht="16.8">
       <c r="A86" s="2" t="s">
         <v>151</v>
       </c>
@@ -2072,7 +2043,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16.5">
+    <row r="87" spans="1:2" ht="16.8">
       <c r="A87" s="2" t="s">
         <v>153</v>
       </c>
@@ -2080,7 +2051,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16.5">
+    <row r="88" spans="1:2" ht="16.8">
       <c r="A88" s="2" t="s">
         <v>155</v>
       </c>
@@ -2088,7 +2059,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="16.5">
+    <row r="89" spans="1:2" ht="16.8">
       <c r="A89" s="2" t="s">
         <v>157</v>
       </c>
@@ -2096,7 +2067,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16.5">
+    <row r="90" spans="1:2" ht="16.8">
       <c r="A90" s="2" t="s">
         <v>159</v>
       </c>
@@ -2104,7 +2075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="16.5">
+    <row r="91" spans="1:2" ht="16.8">
       <c r="A91" s="2" t="s">
         <v>160</v>
       </c>
@@ -2112,7 +2083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16.5">
+    <row r="92" spans="1:2" ht="16.8">
       <c r="A92" s="2" t="s">
         <v>161</v>
       </c>
@@ -2120,7 +2091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16.5">
+    <row r="93" spans="1:2" ht="16.8">
       <c r="A93" s="2" t="s">
         <v>162</v>
       </c>
@@ -2128,7 +2099,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16.5">
+    <row r="94" spans="1:2" ht="16.8">
       <c r="A94" s="2" t="s">
         <v>163</v>
       </c>
@@ -2136,7 +2107,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16.5">
+    <row r="95" spans="1:2" ht="16.8">
       <c r="A95" s="2" t="s">
         <v>165</v>
       </c>
@@ -2144,7 +2115,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16.5">
+    <row r="96" spans="1:2" ht="16.8">
       <c r="A96" s="2" t="s">
         <v>167</v>
       </c>
@@ -2229,7 +2200,7 @@
         <v>203</v>
       </c>
       <c r="B106" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2237,55 +2208,55 @@
         <v>204</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2293,7 +2264,7 @@
         <v>205</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2301,377 +2272,353 @@
         <v>206</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>53</v>
+        <v>288</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CargoUIAutomation/src/test/resources/XpathTestData.xlsx
+++ b/CargoUIAutomation/src/test/resources/XpathTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\IdeaProjects\Cargo\CargoUIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE42381-7505-45E5-8C73-85A66FEA8288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEF0251-957D-48CF-8307-7B47B92628FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73F83708-58D9-CD41-B3DD-01428282C24F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="307">
   <si>
     <t>CargoUsernameLogin</t>
   </si>
@@ -816,9 +816,6 @@
     <t>ParticipantInformation</t>
   </si>
   <si>
-    <t>ShipperInformation</t>
-  </si>
-  <si>
     <t xml:space="preserve">ShipperAccountNumber </t>
   </si>
   <si>
@@ -943,6 +940,12 @@
   </si>
   <si>
     <t>input[id*='generalSelectedPickupDeliveryOptionCode'] + label[for='%s']</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>#boshipmentDescription</t>
   </si>
 </sst>
 </file>
@@ -1338,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486E0D93-E580-4D4E-91BE-77049C6FF4F1}">
   <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A134" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -2285,10 +2288,10 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2431,6 +2434,9 @@
       <c r="A135" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="B135" s="1" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
@@ -2444,28 +2450,37 @@
       <c r="A137" s="1" t="s">
         <v>262</v>
       </c>
+      <c r="B137" s="1" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>53</v>
@@ -2473,148 +2488,154 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/CargoUIAutomation/src/test/resources/XpathTestData.xlsx
+++ b/CargoUIAutomation/src/test/resources/XpathTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\IdeaProjects\Cargo\CargoUIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEF0251-957D-48CF-8307-7B47B92628FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8E46ED-109E-42B4-8BF2-8C7AD4D67DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73F83708-58D9-CD41-B3DD-01428282C24F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="334">
   <si>
     <t>CargoUsernameLogin</t>
   </si>
@@ -946,6 +946,87 @@
   </si>
   <si>
     <t>#boshipmentDescription</t>
+  </si>
+  <si>
+    <t>gbShipmentFlightSearch</t>
+  </si>
+  <si>
+    <t>div[class='modal-dialog ']</t>
+  </si>
+  <si>
+    <t>gbShipmentFlightSearchResults</t>
+  </si>
+  <si>
+    <t>//dc-flight-search-results</t>
+  </si>
+  <si>
+    <t>gbShipmentFlightStandardSelection</t>
+  </si>
+  <si>
+    <t>div[class='column flightInformation'] + div[class='column'] a</t>
+  </si>
+  <si>
+    <t>gbShipmentChargeConfirmation</t>
+  </si>
+  <si>
+    <t>//main[@id='mainContent']</t>
+  </si>
+  <si>
+    <t>gbLoadingWait</t>
+  </si>
+  <si>
+    <t>span img[alt='loading']</t>
+  </si>
+  <si>
+    <t>gbDisplayChargeConfirmation</t>
+  </si>
+  <si>
+    <t>body[class='modal-open']</t>
+  </si>
+  <si>
+    <t>button[class='btn blue-btn ng-binding']</t>
+  </si>
+  <si>
+    <t>gbChargeConfirmationAccept</t>
+  </si>
+  <si>
+    <t>input[id='bopaymentTypeCreditCard'] + label[for='bopaymentTypeCreditCard']</t>
+  </si>
+  <si>
+    <t>gbShipmentPaymentMethod</t>
+  </si>
+  <si>
+    <t>gbShipmentPaymentWithFirstCreditCard</t>
+  </si>
+  <si>
+    <t>input[id='bosavedCardData-1'] + label[for='bosavedCardData-1']</t>
+  </si>
+  <si>
+    <t>gbShipmentOptInFlag</t>
+  </si>
+  <si>
+    <t>//label[@for='bosubscriptionOptFlag']</t>
+  </si>
+  <si>
+    <t>gbShipmentFinalConfirmation</t>
+  </si>
+  <si>
+    <t>button[type='button'] + button[type='submit']</t>
+  </si>
+  <si>
+    <t>gbShipmentFinalConfirmationSubmit</t>
+  </si>
+  <si>
+    <t>gbShipmentBookingConfirmation</t>
+  </si>
+  <si>
+    <t>//div[@id='dc-print']</t>
+  </si>
+  <si>
+    <t>gbShipmentAirwayBillNumber</t>
+  </si>
+  <si>
+    <t>//span[@id='awbNumber']</t>
   </si>
 </sst>
 </file>
@@ -1339,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486E0D93-E580-4D4E-91BE-77049C6FF4F1}">
-  <dimension ref="A1:C160"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -2432,119 +2513,119 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>248</v>
+        <v>310</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>53</v>
+        <v>319</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>266</v>
+        <v>322</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>267</v>
+        <v>323</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>268</v>
+        <v>325</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>270</v>
+        <v>329</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>272</v>
+        <v>332</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>305</v>
@@ -2552,39 +2633,39 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>305</v>
@@ -2592,49 +2673,161 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>296</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>301</v>
       </c>
     </row>

--- a/CargoUIAutomation/src/test/resources/XpathTestData.xlsx
+++ b/CargoUIAutomation/src/test/resources/XpathTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\IdeaProjects\Cargo\CargoUIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8E46ED-109E-42B4-8BF2-8C7AD4D67DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AB0DB2-9776-4117-A7F5-E1F7AD25CD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73F83708-58D9-CD41-B3DD-01428282C24F}"/>
   </bookViews>
@@ -705,24 +705,9 @@
     <t>input#gestationDestCode</t>
   </si>
   <si>
-    <t>input#gequantity-1</t>
-  </si>
-  <si>
     <t>input#gestationSourceCode</t>
   </si>
   <si>
-    <t>input#gelength-1</t>
-  </si>
-  <si>
-    <t>input#gewidth-1</t>
-  </si>
-  <si>
-    <t>input#geheight-1</t>
-  </si>
-  <si>
-    <t>select#geunit-1</t>
-  </si>
-  <si>
     <t>div#dc-tab-content156-6406 &gt; form &gt; div:nth-child(7) &gt; a</t>
   </si>
   <si>
@@ -1027,6 +1012,21 @@
   </si>
   <si>
     <t>//span[@id='awbNumber']</t>
+  </si>
+  <si>
+    <t>input#gequantity-%s</t>
+  </si>
+  <si>
+    <t>input#gelength-%s</t>
+  </si>
+  <si>
+    <t>input#gewidth-%s</t>
+  </si>
+  <si>
+    <t>input#geheight-%s</t>
+  </si>
+  <si>
+    <t>select#geunit-%s</t>
   </si>
 </sst>
 </file>
@@ -1422,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486E0D93-E580-4D4E-91BE-77049C6FF4F1}">
   <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -2284,7 +2284,7 @@
         <v>203</v>
       </c>
       <c r="B106" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2297,50 +2297,50 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2348,7 +2348,7 @@
         <v>205</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2356,23 +2356,23 @@
         <v>206</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2388,7 +2388,7 @@
         <v>208</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>226</v>
+        <v>329</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2396,7 +2396,7 @@
         <v>209</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>228</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2404,7 +2404,7 @@
         <v>210</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>229</v>
+        <v>331</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2412,7 +2412,7 @@
         <v>211</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>230</v>
+        <v>332</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2420,7 +2420,7 @@
         <v>212</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>231</v>
+        <v>333</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2428,7 +2428,7 @@
         <v>213</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2436,7 +2436,7 @@
         <v>214</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2444,7 +2444,7 @@
         <v>215</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2452,7 +2452,7 @@
         <v>216</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2460,7 +2460,7 @@
         <v>217</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2468,7 +2468,7 @@
         <v>218</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2476,7 +2476,7 @@
         <v>219</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2484,7 +2484,7 @@
         <v>220</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2492,7 +2492,7 @@
         <v>221</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2500,7 +2500,7 @@
         <v>222</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2508,172 +2508,172 @@
         <v>223</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>53</v>
@@ -2681,154 +2681,154 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
